--- a/quantification/mouseTcell/CRD.xlsx
+++ b/quantification/mouseTcell/CRD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lclement/Downloads/heart/caseControl/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lclement/Downloads/pda-data/quantification/mouseTcell/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EEB2025-F514-104D-9122-F78D5B05D0EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2ED6AC-0284-F24A-BB3E-33C1D092C646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5680" yWindow="4860" windowWidth="16800" windowHeight="10220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,30 +25,6 @@
     <t>run</t>
   </si>
   <si>
-    <t>Tconv.M11_R2_inj1</t>
-  </si>
-  <si>
-    <t>Tconv.M12_1</t>
-  </si>
-  <si>
-    <t>Tconv.M12_2</t>
-  </si>
-  <si>
-    <t>Tconv.M6_inj1</t>
-  </si>
-  <si>
-    <t>Treg.M11_R1_inj1</t>
-  </si>
-  <si>
-    <t>Treg.M12_3</t>
-  </si>
-  <si>
-    <t>Treg.M5_inj1</t>
-  </si>
-  <si>
-    <t>Treg.M5_inj2</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -56,6 +32,30 @@
   </si>
   <si>
     <t>reg</t>
+  </si>
+  <si>
+    <t>Intensity.Tconv.M11_R2_inj1</t>
+  </si>
+  <si>
+    <t>Intensity.Tconv.M12_1</t>
+  </si>
+  <si>
+    <t>Intensity.Tconv.M12_2</t>
+  </si>
+  <si>
+    <t>Intensity.Tconv.M6_inj1</t>
+  </si>
+  <si>
+    <t>Intensity.Treg.M11_R1_inj1</t>
+  </si>
+  <si>
+    <t>Intensity.Treg.M12_3</t>
+  </si>
+  <si>
+    <t>Intensity.Treg.M5_inj1</t>
+  </si>
+  <si>
+    <t>Intensity.Treg.M5_inj2</t>
   </si>
 </sst>
 </file>
@@ -392,7 +392,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -405,71 +405,71 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
